--- a/downloaded_files/EPES308_Tutorial-35848.xlsx
+++ b/downloaded_files/EPES308_Tutorial-35848.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>ahmed saleh ahmed mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عبدالنبي عبدالوهاب محمد محجوب الشيخ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed abdelnaby abdelwahab mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230317</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -625,7 +634,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.200625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="35.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.050625000000004" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -804,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4174986458</x:v>
+        <x:v>45928.4063091435</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4148637384</x:v>
+        <x:v>45907.4174986458</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4173376157</x:v>
+        <x:v>45907.4148637384</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4176778935</x:v>
+        <x:v>45907.4173376157</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4155109954</x:v>
+        <x:v>45907.4176778935</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.6717197917</x:v>
+        <x:v>45907.4155109954</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.6748440162</x:v>
+        <x:v>45912.6717197917</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4149399653</x:v>
+        <x:v>45912.6748440162</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.6736113773</x:v>
+        <x:v>45907.4149399653</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45912.6736113773</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4150756597</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6719208681</x:v>
+        <x:v>45907.4150756597</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6745544329</x:v>
+        <x:v>45912.6719208681</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6729653588</x:v>
+        <x:v>45912.6745544329</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6667431366</x:v>
+        <x:v>45912.6729653588</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45912.6667431366</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45907.4148150463</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES308_Tutorial-35848.xlsx
+++ b/downloaded_files/EPES308_Tutorial-35848.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Mohamed Aly Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عبدالرحيم سالم عبدالهادي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHAMED ABDALRAHIM SALEM ABDALHADY</x:t>
   </x:si>
   <x:si>
     <x:t>1230109</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1165,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4150756597</x:v>
+        <x:v>45929.3923243056</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6719208681</x:v>
+        <x:v>45907.4150756597</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6745544329</x:v>
+        <x:v>45912.6719208681</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.6729653588</x:v>
+        <x:v>45912.6745544329</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.6667431366</x:v>
+        <x:v>45912.6729653588</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45912.6667431366</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.4148150463</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES308_Tutorial-35848.xlsx
+++ b/downloaded_files/EPES308_Tutorial-35848.xlsx
@@ -75,7 +75,7 @@
     <x:t>احمد محمد فؤاد محمد صالح</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed fouad saleh</x:t>
+    <x:t>Ahmed Mohamed Fouad Mohamed Saleh</x:t>
   </x:si>
   <x:si>
     <x:t>1230025</x:t>
